--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-res-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-res-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-res-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-res-req-4:The method element is required and must be provided. {method.exists() and method.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -807,7 +807,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -838,7 +838,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
 </t>
   </si>
   <si>
@@ -1106,7 +1106,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-observation-bodysites|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-observation-bodysites|0.2.0</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1136,7 +1136,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-imaging-methods|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-imaging-methods|0.2.0</t>
   </si>
   <si>
     <t>OBX-17</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="455">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing the imaging-based disease status of a cancer patient.
-It constrains the mCODE [CancerDiseaseStatus profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-disease-status) to restrict it to imaging-based monitoring evaluated based on RECIST criteria.</t>
+    <t xml:space="preserve">A profile representing the imaging-based disease status of a cancer patient.
+It constrains the mCODE [CancerDiseaseStatus profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-disease-status) to restrict it to imaging-based monitoring evaluated based on RECIST criteria.
+**Conformance:**
+Observation resources representing a disease status obtained through imaging techniques in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-disease-status|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-disease-status</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -381,7 +383,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -472,7 +474,7 @@
     <t>evidenceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-disease-status-evidence-type|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-disease-status-evidence-type}
 </t>
   </si>
   <si>
@@ -569,7 +571,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disease-status-evidence-type-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disease-status-evidence-type-vs</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -633,7 +635,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -659,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -678,19 +680,10 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>Codes providing the status of an observation.</t>
@@ -741,7 +734,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -783,7 +776,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -807,7 +800,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -838,7 +831,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition)
 </t>
   </si>
   <si>
@@ -861,7 +854,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -946,7 +939,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|6.1.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner)
 </t>
   </si>
   <si>
@@ -980,7 +973,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-condition-status-trend-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-condition-status-trend-vs</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1021,7 +1014,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1053,7 +1046,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1106,7 +1099,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-observation-bodysites|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-observation-bodysites</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1136,7 +1129,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-imaging-methods|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-cancer-imaging-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1148,7 +1141,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1170,7 +1163,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
   </si>
   <si>
@@ -1244,7 +1237,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1294,7 +1287,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1327,7 +1320,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1364,7 +1357,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1380,7 +1373,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1807,7 +1800,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="146.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1822,7 +1815,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -4027,16 +4020,16 @@
         <v>112</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4046,7 +4039,7 @@
         <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>20</v>
@@ -4064,10 +4057,10 @@
         <v>174</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4100,19 +4093,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4120,10 +4113,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4149,16 +4142,16 @@
         <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4168,7 +4161,7 @@
         <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>20</v>
@@ -4186,10 +4179,10 @@
         <v>116</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4207,7 +4200,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4231,10 +4224,10 @@
         <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4242,14 +4235,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4271,16 +4264,16 @@
         <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4290,29 +4283,29 @@
         <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4329,7 +4322,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>92</v>
@@ -4344,30 +4337,30 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AP21" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4390,19 +4383,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4451,7 +4444,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4466,19 +4459,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4486,10 +4479,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4497,7 +4490,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4512,16 +4505,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4571,7 +4564,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4592,13 +4585,13 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4606,14 +4599,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4632,7 +4625,7 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>196</v>
@@ -4641,10 +4634,10 @@
         <v>196</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4693,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4708,19 +4701,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>20</v>
@@ -4728,18 +4721,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
@@ -4754,19 +4747,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4815,7 +4808,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4830,19 +4823,19 @@
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
@@ -4850,10 +4843,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4876,16 +4869,16 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4935,7 +4928,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4956,13 +4949,13 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -4970,10 +4963,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4996,7 +4989,7 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>196</v>
@@ -5006,7 +4999,7 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5055,7 +5048,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5070,19 +5063,19 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5090,10 +5083,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5101,7 +5094,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -5119,16 +5112,16 @@
         <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5157,7 +5150,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5175,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5184,7 +5177,7 @@
         <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>104</v>
@@ -5193,27 +5186,27 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5239,16 +5232,16 @@
         <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5273,13 +5266,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5297,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5306,7 +5299,7 @@
         <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>104</v>
@@ -5321,7 +5314,7 @@
         <v>135</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5332,14 +5325,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5361,16 +5354,16 @@
         <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5395,13 +5388,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5419,7 +5412,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5437,27 +5430,27 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5480,19 +5473,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5541,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5562,10 +5555,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5576,10 +5569,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5605,13 +5598,13 @@
         <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5641,7 +5634,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5659,7 +5652,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5677,27 +5670,27 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>347</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5723,16 +5716,16 @@
         <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5761,7 +5754,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5779,7 +5772,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5800,10 +5793,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5814,10 +5807,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5840,7 +5833,7 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>196</v>
@@ -5849,7 +5842,7 @@
         <v>196</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5899,7 +5892,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5917,27 +5910,27 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>362</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5960,7 +5953,7 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>196</v>
@@ -5969,7 +5962,7 @@
         <v>196</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6019,7 +6012,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6037,27 +6030,27 @@
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6080,7 +6073,7 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>196</v>
@@ -6089,10 +6082,10 @@
         <v>196</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6141,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6153,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6162,10 +6155,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6176,10 +6169,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6294,10 +6287,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6323,10 +6316,10 @@
         <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>181</v>
@@ -6414,14 +6407,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6443,10 +6436,10 @@
         <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>181</v>
@@ -6501,7 +6494,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6536,10 +6529,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6562,13 +6555,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6619,7 +6612,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6628,7 +6621,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6640,10 +6633,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6654,10 +6647,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6680,13 +6673,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6737,7 +6730,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6746,7 +6739,7 @@
         <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>104</v>
@@ -6758,10 +6751,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6772,10 +6765,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6801,16 +6794,16 @@
         <v>170</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6838,10 +6831,10 @@
         <v>116</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6859,7 +6852,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6877,13 +6870,13 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6894,10 +6887,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6923,16 +6916,16 @@
         <v>170</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6957,13 +6950,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6981,7 +6974,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6999,13 +6992,13 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7016,10 +7009,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7042,17 +7035,17 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7101,7 +7094,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7125,7 +7118,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7136,10 +7129,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7165,10 +7158,10 @@
         <v>152</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7219,7 +7212,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7240,10 +7233,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7254,10 +7247,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7280,7 +7273,7 @@
         <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>196</v>
@@ -7289,7 +7282,7 @@
         <v>196</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7339,7 +7332,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7360,10 +7353,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7374,10 +7367,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7400,7 +7393,7 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>196</v>
@@ -7409,7 +7402,7 @@
         <v>196</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7459,7 +7452,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7480,10 +7473,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7494,10 +7487,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7520,7 +7513,7 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>196</v>
@@ -7529,10 +7522,10 @@
         <v>196</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7581,7 +7574,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7602,10 +7595,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7616,10 +7609,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7734,10 +7727,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7763,10 +7756,10 @@
         <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>181</v>
@@ -7854,14 +7847,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7883,10 +7876,10 @@
         <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>181</v>
@@ -7941,7 +7934,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7976,10 +7969,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8005,16 +7998,16 @@
         <v>170</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8039,13 +8032,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8063,7 +8056,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>92</v>
@@ -8081,16 +8074,16 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>20</v>
@@ -8098,10 +8091,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8124,19 +8117,19 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8185,7 +8178,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8203,27 +8196,27 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8249,16 +8242,16 @@
         <v>170</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8283,13 +8276,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8307,7 +8300,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8316,7 +8309,7 @@
         <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>104</v>
@@ -8331,7 +8324,7 @@
         <v>135</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8342,14 +8335,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8371,16 +8364,16 @@
         <v>170</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8405,13 +8398,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8429,7 +8422,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8447,27 +8440,27 @@
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8493,16 +8486,16 @@
         <v>82</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8551,7 +8544,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8572,10 +8565,10 @@
         <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -973,7 +973,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-condition-status-trend-vs</t>
+    <t>https://loinc.org/LL4721-8/</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -992,6 +992,86 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension:interpreted</t>
+  </si>
+  <si>
+    <t>interpreted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-treatment-response-recist-is-interpreted}
+</t>
+  </si>
+  <si>
+    <t>Treatment Response RECIST Is Interpreted</t>
+  </si>
+  <si>
+    <t>Indicates that whether the RECIST was interpreted from a radiology report rather than extracted.</t>
+  </si>
+  <si>
+    <t>Observation.value[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.value[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -1209,12 +1289,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1781,7 +1855,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP56"/>
+  <dimension ref="A1:AP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5146,7 +5220,7 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
@@ -5229,20 +5303,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>153</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5266,13 +5336,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5290,7 +5360,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5299,10 +5369,10 @@
         <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
@@ -5311,10 +5381,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5325,14 +5395,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5351,20 +5421,18 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5388,31 +5456,31 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5424,35 +5492,37 @@
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>327</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5461,10 +5531,10 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5473,20 +5543,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5534,7 +5600,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>328</v>
+        <v>160</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5546,7 +5612,7 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -5555,10 +5621,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5569,10 +5635,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5583,7 +5649,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5592,21 +5658,23 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5630,11 +5698,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5652,13 +5722,13 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
@@ -5670,27 +5740,27 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>344</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5710,22 +5780,22 @@
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5750,11 +5820,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5772,7 +5844,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5793,10 +5865,10 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5807,10 +5879,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5833,18 +5905,20 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>354</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>196</v>
+        <v>333</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5868,13 +5942,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5892,7 +5966,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5901,7 +5975,7 @@
         <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>104</v>
@@ -5910,38 +5984,38 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>356</v>
+        <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>359</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5953,18 +6027,20 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>345</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5988,13 +6064,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6012,13 +6088,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -6030,27 +6106,27 @@
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6073,19 +6149,19 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>357</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6134,7 +6210,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6146,7 +6222,7 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>371</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6155,10 +6231,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6169,10 +6245,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6195,15 +6271,17 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6228,13 +6306,11 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6252,7 +6328,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>155</v>
+        <v>362</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6264,44 +6340,44 @@
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>20</v>
+        <v>367</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>156</v>
+        <v>369</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>20</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6313,18 +6389,20 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6348,13 +6426,11 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6372,19 +6448,19 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>160</v>
+        <v>371</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6393,10 +6469,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>156</v>
+        <v>378</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6407,46 +6483,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>137</v>
+        <v>380</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="M39" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6494,45 +6568,45 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>20</v>
+        <v>383</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6555,15 +6629,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>385</v>
+        <v>196</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6612,7 +6688,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6621,7 +6697,7 @@
         <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>104</v>
@@ -6630,27 +6706,27 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>20</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6661,7 +6737,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6673,16 +6749,20 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>391</v>
+        <v>196</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6730,19 +6810,19 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>397</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6751,10 +6831,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6765,10 +6845,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6791,20 +6871,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>395</v>
+        <v>153</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6828,13 +6904,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>399</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6852,7 +6928,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>394</v>
+        <v>155</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6864,19 +6940,19 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6887,14 +6963,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6913,20 +6989,18 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6950,13 +7024,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6974,7 +7048,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>403</v>
+        <v>160</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6986,19 +7060,19 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7009,43 +7083,45 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>411</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>414</v>
+        <v>182</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7094,19 +7170,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -7118,7 +7194,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>415</v>
+        <v>135</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7129,10 +7205,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7155,13 +7231,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7212,7 +7288,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7221,7 +7297,7 @@
         <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>104</v>
@@ -7233,10 +7309,10 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7247,10 +7323,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7261,7 +7337,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7270,20 +7346,18 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7332,16 +7406,16 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>104</v>
@@ -7353,10 +7427,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7367,10 +7441,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7381,7 +7455,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7390,21 +7464,23 @@
         <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>426</v>
+        <v>170</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>196</v>
+        <v>419</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>196</v>
+        <v>420</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
       </c>
@@ -7428,13 +7504,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>20</v>
+        <v>423</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7452,13 +7528,13 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
@@ -7470,13 +7546,13 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7487,10 +7563,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7510,16 +7586,16 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>170</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>196</v>
+        <v>428</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>196</v>
+        <v>429</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>430</v>
@@ -7550,13 +7626,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>20</v>
+        <v>433</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7574,7 +7650,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7592,13 +7668,13 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7635,16 +7711,18 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>152</v>
+        <v>435</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>153</v>
+        <v>436</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>154</v>
+        <v>437</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7692,7 +7770,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>155</v>
+        <v>434</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7704,7 +7782,7 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7716,7 +7794,7 @@
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>156</v>
+        <v>439</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7727,21 +7805,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7753,17 +7831,15 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7812,19 +7888,19 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7833,10 +7909,10 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>156</v>
+        <v>443</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7847,14 +7923,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7867,26 +7943,24 @@
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>381</v>
+        <v>196</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7934,7 +8008,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7946,7 +8020,7 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7955,10 +8029,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>135</v>
+        <v>448</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7969,10 +8043,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7980,10 +8054,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7995,20 +8069,18 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>438</v>
+        <v>196</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>439</v>
+        <v>196</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8032,13 +8104,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8056,13 +8128,13 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
@@ -8074,16 +8146,16 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>441</v>
+        <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>240</v>
+        <v>447</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>20</v>
@@ -8091,10 +8163,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8105,7 +8177,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8117,19 +8189,19 @@
         <v>93</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>444</v>
+        <v>196</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8178,13 +8250,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -8196,27 +8268,27 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>303</v>
+        <v>456</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>304</v>
+        <v>457</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8239,20 +8311,16 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>448</v>
+        <v>153</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8276,13 +8344,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8300,7 +8368,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>447</v>
+        <v>155</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8309,10 +8377,10 @@
         <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>314</v>
+        <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8321,10 +8389,10 @@
         <v>20</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>315</v>
+        <v>156</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8335,14 +8403,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8361,20 +8429,18 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8398,13 +8464,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -8422,7 +8488,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>451</v>
+        <v>160</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8434,37 +8500,37 @@
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>326</v>
+        <v>156</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>327</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8477,25 +8543,25 @@
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>454</v>
+        <v>405</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>369</v>
+        <v>181</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>370</v>
+        <v>182</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8544,7 +8610,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>452</v>
+        <v>406</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8556,29 +8622,639 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP56" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP61" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP56">
+  <autoFilter ref="A1:AP61">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8588,7 +9264,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-res-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-res-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-res-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-res-req-4:The method element is required and must be provided. {method.exists() and method.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-res-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-res-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-res-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-res-req-4:The method element is required and must be provided. {method.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-res-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-res-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-res-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-res-req-4:The method element is required and must be provided. {method.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-res-req-1:The subject element is required and must be provided. {subject.exists()}o-res-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-res-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}o-res-req-4:The method element is required and must be provided. {method.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-imaging-disease-status.xlsx
+++ b/StructureDefinition-onconova-imaging-disease-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
